--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/CG-Vak Software and Exports Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/CG-Vak Software and Exports Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -633,13 +633,13 @@
         <v>1.69</v>
       </c>
       <c r="I2">
-        <v>0.2135714285714286</v>
+        <v>0.21</v>
       </c>
       <c r="J2">
         <v>2.27</v>
       </c>
       <c r="K2">
-        <v>0.36125</v>
+        <v>0.36</v>
       </c>
       <c r="L2">
         <v>2.27</v>
@@ -651,7 +651,7 @@
         <v>2.84</v>
       </c>
       <c r="O2">
-        <v>0.3328571428571428</v>
+        <v>0.33</v>
       </c>
       <c r="P2">
         <v>2.84</v>
@@ -660,7 +660,7 @@
         <v>2.2</v>
       </c>
       <c r="R2">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="S2">
         <v>0.07000000000000001</v>
@@ -678,7 +678,7 @@
         <v>2.74</v>
       </c>
       <c r="X2">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y2">
         <v>7.43</v>
@@ -687,10 +687,10 @@
         <v>12.54</v>
       </c>
       <c r="AA2">
-        <v>0.3866666666666667</v>
+        <v>0.39</v>
       </c>
       <c r="AB2">
-        <v>3.390526315789474</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -719,13 +719,13 @@
         <v>2.39</v>
       </c>
       <c r="I3">
-        <v>0.2135714285714286</v>
+        <v>0.21</v>
       </c>
       <c r="J3">
         <v>0.67</v>
       </c>
       <c r="K3">
-        <v>0.36125</v>
+        <v>0.36</v>
       </c>
       <c r="L3">
         <v>0.67</v>
@@ -737,7 +737,7 @@
         <v>2.17</v>
       </c>
       <c r="O3">
-        <v>0.3328571428571428</v>
+        <v>0.33</v>
       </c>
       <c r="P3">
         <v>2.17</v>
@@ -746,7 +746,7 @@
         <v>3.31</v>
       </c>
       <c r="R3">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="S3">
         <v>0.03</v>
@@ -764,7 +764,7 @@
         <v>2.71</v>
       </c>
       <c r="X3">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y3">
         <v>6.13</v>
@@ -805,7 +805,7 @@
         <v>2.66</v>
       </c>
       <c r="I4">
-        <v>0.2135714285714286</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -823,7 +823,7 @@
         <v>2.11</v>
       </c>
       <c r="O4">
-        <v>0.3328571428571428</v>
+        <v>0.33</v>
       </c>
       <c r="P4">
         <v>2.5</v>
@@ -832,7 +832,7 @@
         <v>3.31</v>
       </c>
       <c r="R4">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="S4">
         <v>0.34</v>
@@ -850,7 +850,7 @@
         <v>2.12</v>
       </c>
       <c r="X4">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y4">
         <v>5.99</v>
@@ -859,7 +859,7 @@
         <v>11.8</v>
       </c>
       <c r="AA4">
-        <v>0.3866666666666667</v>
+        <v>0.39</v>
       </c>
       <c r="AB4">
         <v>3.31</v>
@@ -891,7 +891,7 @@
         <v>2.72</v>
       </c>
       <c r="I5">
-        <v>0.2135714285714286</v>
+        <v>0.21</v>
       </c>
       <c r="J5">
         <v>0.65</v>
@@ -909,7 +909,7 @@
         <v>2.64</v>
       </c>
       <c r="O5">
-        <v>0.3328571428571428</v>
+        <v>0.33</v>
       </c>
       <c r="P5">
         <v>2.89</v>
@@ -918,7 +918,7 @@
         <v>3.31</v>
       </c>
       <c r="R5">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="S5">
         <v>0.34</v>
@@ -936,7 +936,7 @@
         <v>1.95</v>
       </c>
       <c r="X5">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y5">
         <v>5.28</v>
@@ -945,7 +945,7 @@
         <v>11.48</v>
       </c>
       <c r="AA5">
-        <v>0.3866666666666667</v>
+        <v>0.39</v>
       </c>
       <c r="AB5">
         <v>3.31</v>
@@ -977,7 +977,7 @@
         <v>2.17</v>
       </c>
       <c r="I6">
-        <v>0.2135714285714286</v>
+        <v>0.21</v>
       </c>
       <c r="J6">
         <v>1.02</v>
@@ -995,7 +995,7 @@
         <v>3.26</v>
       </c>
       <c r="O6">
-        <v>0.3328571428571428</v>
+        <v>0.33</v>
       </c>
       <c r="P6">
         <v>3.26</v>
@@ -1004,7 +1004,7 @@
         <v>3.31</v>
       </c>
       <c r="R6">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="S6">
         <v>0.34</v>
@@ -1022,7 +1022,7 @@
         <v>1.97</v>
       </c>
       <c r="X6">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y6">
         <v>4.92</v>
@@ -1031,7 +1031,7 @@
         <v>11.49</v>
       </c>
       <c r="AA6">
-        <v>0.3866666666666667</v>
+        <v>0.39</v>
       </c>
       <c r="AB6">
         <v>3.31</v>
@@ -1063,13 +1063,13 @@
         <v>1.87</v>
       </c>
       <c r="I7">
-        <v>0.2135714285714286</v>
+        <v>0.21</v>
       </c>
       <c r="J7">
         <v>1.1</v>
       </c>
       <c r="K7">
-        <v>0.36125</v>
+        <v>0.36</v>
       </c>
       <c r="L7">
         <v>1.1</v>
@@ -1081,7 +1081,7 @@
         <v>3.32</v>
       </c>
       <c r="O7">
-        <v>0.3328571428571428</v>
+        <v>0.33</v>
       </c>
       <c r="P7">
         <v>3.32</v>
@@ -1090,7 +1090,7 @@
         <v>3.31</v>
       </c>
       <c r="R7">
-        <v>0.3214285714285715</v>
+        <v>0.32</v>
       </c>
       <c r="S7">
         <v>0.34</v>
@@ -1108,7 +1108,7 @@
         <v>1.96</v>
       </c>
       <c r="X7">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y7">
         <v>3.93</v>
@@ -1117,7 +1117,7 @@
         <v>10.56</v>
       </c>
       <c r="AA7">
-        <v>0.3866666666666667</v>
+        <v>0.39</v>
       </c>
       <c r="AB7">
         <v>3.31</v>
@@ -1194,7 +1194,7 @@
         <v>0.54</v>
       </c>
       <c r="X8">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y8">
         <v>2.77</v>
@@ -1241,7 +1241,7 @@
         <v>1.21</v>
       </c>
       <c r="K9">
-        <v>0.36125</v>
+        <v>0.36</v>
       </c>
       <c r="L9">
         <v>1.75</v>
@@ -1280,7 +1280,7 @@
         <v>0.26</v>
       </c>
       <c r="X9">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y9">
         <v>1.95</v>
@@ -1538,7 +1538,7 @@
         <v>0.12</v>
       </c>
       <c r="X12">
-        <v>1.191818181818182</v>
+        <v>1.19</v>
       </c>
       <c r="Y12">
         <v>3.81</v>
@@ -1659,10 +1659,10 @@
         <v>9.01</v>
       </c>
       <c r="G14">
-        <v>1.474</v>
+        <v>1.47</v>
       </c>
       <c r="H14">
-        <v>1.998235294117647</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0.05</v>
@@ -1745,10 +1745,10 @@
         <v>9.789999999999999</v>
       </c>
       <c r="G15">
-        <v>1.474</v>
+        <v>1.47</v>
       </c>
       <c r="H15">
-        <v>1.998235294117647</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0.07000000000000001</v>
@@ -1831,10 +1831,10 @@
         <v>12.93</v>
       </c>
       <c r="G16">
-        <v>1.474</v>
+        <v>1.47</v>
       </c>
       <c r="H16">
-        <v>1.998235294117647</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0.12</v>
@@ -2175,7 +2175,7 @@
         <v>42.37</v>
       </c>
       <c r="G20">
-        <v>1.474</v>
+        <v>1.47</v>
       </c>
       <c r="H20">
         <v>3.64</v>
@@ -2261,7 +2261,7 @@
         <v>50.99</v>
       </c>
       <c r="G21">
-        <v>1.474</v>
+        <v>1.47</v>
       </c>
       <c r="H21">
         <v>3.23</v>
